--- a/va_facility_data_2025-02-20/San Francisco VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''San%20Francisco%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/San Francisco VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''San%20Francisco%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rfb4a1782ed8f4f40a7b66c9595d42e88"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R7928b9775f1d46789cd0429295dd0389"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R6d2860c3dd924809b93b757931c3bc06"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R713d9ee084814c5ca9a90321520c74ba"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ref9be2d611b44ecfaf1a8f00014254e5"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb31fcf225b304d0c824427d6e4bf6949"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R68ab4288233b4acbb72216675ccd3e6d"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rdb4c3eca796541269a5cb150c2a8cd4b"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra433cf5143a541cfa0f35f6c29b2aa28"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rd09720b28f104ab583af6902dae8b46b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R514142a94a304676a42670df0ab79b38"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9f52b94a9a874ac3a28e4fd736df5a78"/>
   </x:sheets>
 </x:workbook>
 </file>
